--- a/目标管理表.xlsx
+++ b/目标管理表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>当前进度</t>
     <rPh sb="0" eb="1">
@@ -159,14 +159,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>读10章《七年就是一辈子》</t>
-    <rPh sb="3" eb="4">
+    <t>#2（1.9-1.15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读完《睡个好觉》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《七年就是一辈子》读到第15章</t>
+    <rPh sb="9" eb="10">
+      <t>du'dao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>di</t>
+    </rPh>
+    <rPh sb="14" eb="15">
       <t>zhang</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#2（1.9-1.15）</t>
+    <t>学习Markdown Here</t>
+    <rPh sb="0" eb="1">
+      <t>xue'xi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,8 +249,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -287,7 +306,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="37">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -306,6 +325,7 @@
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -323,6 +343,7 @@
     <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -597,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,7 +694,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
@@ -681,7 +702,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -691,7 +712,17 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/目标管理表.xlsx
+++ b/目标管理表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>当前进度</t>
     <rPh sb="0" eb="1">
@@ -65,10 +65,6 @@
   </si>
   <si>
     <t>保证春节活动2016高品质进入测试环节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成 [方法论]产品设计_理论v1.0 建立</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -184,6 +180,30 @@
     <rPh sb="0" eb="1">
       <t>xue'xi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2（1.16-1.22）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《七年就是一辈子》读到第30章</t>
+    <rPh sb="9" eb="10">
+      <t>du'dao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>di</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写一篇公众号</t>
+  </si>
+  <si>
+    <t>完成 [方法论]产品设计_理论 建立</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -249,8 +269,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -306,7 +338,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -326,6 +358,12 @@
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -344,6 +382,12 @@
     <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -618,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -644,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -652,7 +696,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -667,62 +711,94 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>19</v>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/目标管理表.xlsx
+++ b/目标管理表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>当前进度</t>
     <rPh sb="0" eb="1">
@@ -135,27 +135,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成 [方法论]睡眠 建立</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fang'fa'lun</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shui'mian</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>jian'li</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成 [方法论]产品设计_理论 建立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#2（1.9-1.15）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -183,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#2（1.16-1.22）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>《七年就是一辈子》读到第30章</t>
     <rPh sb="9" eb="10">
       <t>du'dao</t>
@@ -203,7 +179,118 @@
     <t>写一篇公众号</t>
   </si>
   <si>
-    <t>完成 [方法论]产品设计_理论 建立</t>
+    <t>#3（1.9-1.15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4（1.16-1.22）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《七年就是一辈子》读完</t>
+    <rPh sb="9" eb="10">
+      <t>du'dao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#5（1.23-1.29）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祁连山Photoshop学到第80节</t>
+    <rPh sb="0" eb="1">
+      <t>qi'lian'shan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xue</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>di</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祁连山Photoshop学完</t>
+    <rPh sb="0" eb="1">
+      <t>qi'lian'shan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xue</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#6（1.30-2.5）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成 [方法论] 睡眠 建立</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang'fa'lun</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shui'mian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jian'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成 [方法论] 产品设计_理论 建立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《Mactalk 人生元编程》读完</t>
+    <rPh sb="9" eb="10">
+      <t>ren'sheng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bian'cheng</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>du'wan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《沸腾十五年》读完</t>
+    <rPh sb="1" eb="2">
+      <t>fei'teng'shi'wu'nai'n</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'wu'nian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>du'wan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成 [方法论] 产品_理论 建立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,8 +356,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -338,7 +439,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="63">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -364,6 +465,13 @@
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -388,6 +496,13 @@
     <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -662,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -701,17 +816,21 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -729,6 +848,9 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D6" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -740,10 +862,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -751,7 +873,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -764,42 +889,111 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/目标管理表.xlsx
+++ b/目标管理表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>当前进度</t>
     <rPh sb="0" eb="1">
@@ -291,6 +291,78 @@
   </si>
   <si>
     <t>✔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿刘Photoshop二期学完</t>
+    <rPh sb="0" eb="1">
+      <t>a'liu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>er'qi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xue'wan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿刘Photoshop三期学一半</t>
+    <rPh sb="11" eb="12">
+      <t>san</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yi'ban</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#7（2.6-2.12）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[方法论] 个人管理_理论 迭代 完成25%</t>
+    <rPh sb="1" eb="2">
+      <t>fang'fa'lun</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>die'dai</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东分销系统研究 完成100%</t>
+    <rPh sb="0" eb="1">
+      <t>jing'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yan'jiu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[方法论] 产品_理论 迭代 完成100%</t>
+    <rPh sb="12" eb="13">
+      <t>die'dai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wan'cheng</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -356,8 +428,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -439,7 +523,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="75">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -472,6 +556,12 @@
     <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -503,6 +593,12 @@
     <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -777,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -993,7 +1089,51 @@
       <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/目标管理表.xlsx
+++ b/目标管理表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目标" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>当前进度</t>
     <rPh sb="0" eb="1">
@@ -362,6 +362,66 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《硅谷钢铁侠》阅读到30%</t>
+    <rPh sb="1" eb="2">
+      <t>gui'gu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gang'tie'xia</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yue'du</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理完成一张照片</t>
+    <rPh sb="0" eb="1">
+      <t>chuy'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi'zhang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhao'pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#8（2.13-2.19）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9（2.20-2.26）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《硅谷钢铁侠》阅读到60%</t>
+    <rPh sb="1" eb="2">
+      <t>gui'gu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gang'tie'xia</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yue'du</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -428,8 +488,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -523,7 +611,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="103">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -562,6 +650,20 @@
     <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -599,6 +701,20 @@
     <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -873,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1012,7 +1128,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1116,13 +1232,19 @@
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="D31" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
@@ -1130,9 +1252,65 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/目标管理表.xlsx
+++ b/目标管理表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
   <si>
     <t>当前进度</t>
     <rPh sb="0" eb="1">
@@ -422,6 +422,65 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#10（2.27-3.5）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《硅谷钢铁侠》读完</t>
+    <rPh sb="1" eb="2">
+      <t>gui'gu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gang'tie'xia</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>du'wan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#11（3.6-3.12）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[方法论] 个人管理_理论 迭代 完成50%</t>
+    <rPh sb="1" eb="2">
+      <t>fang'fa'lun</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>die'dai</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#12（3.13-3.19）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#12（3.20-3.26）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《时间简史》读20%</t>
+    <rPh sb="1" eb="2">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jian'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>du</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -488,8 +547,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="103">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -611,7 +696,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="103">
+  <cellStyles count="129">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -664,6 +749,19 @@
     <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -715,6 +813,19 @@
     <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -989,15 +1100,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" style="2" customWidth="1"/>
@@ -1302,15 +1413,83 @@
       <c r="B41" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="D41" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/目标管理表.xlsx
+++ b/目标管理表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t>当前进度</t>
     <rPh sb="0" eb="1">
@@ -547,8 +547,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="129">
+  <cellStyleXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -696,7 +698,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="129">
+  <cellStyles count="131">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -762,6 +764,7 @@
     <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -826,6 +829,7 @@
     <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1102,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1486,6 +1490,9 @@
       <c r="B53" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="D53" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
